--- a/Unit-1 Part A.xlsx
+++ b/Unit-1 Part A.xlsx
@@ -425,6 +425,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
